--- a/Studies/S2_softRobots/t2_CAMs/post_CAMsecond/static/Scale Koverola et al., 2022/items Koverola 2022.xlsx
+++ b/Studies/S2_softRobots/t2_CAMs/post_CAMsecond/static/Scale Koverola et al., 2022/items Koverola 2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\livmats studies\Studies\S2_softRobots\t2_CAMs\post_CAMsecond\static\Scale Koverola et al., 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\JATOSSoftware\study_assets_root\S2_CAMstudy\post_CAMsecond\static\Scale Koverola et al., 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{B64E0BC0-A39A-4253-8201-1C40B395A2AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{71A6CB9B-6A02-465B-BE6F-F5AC52571AA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,34 +113,10 @@
     <t xml:space="preserve">Ich kann einem Roboter vertrauen. </t>
   </si>
   <si>
-    <t>Ich würde mich im Gespräch mit einem Roboter entspannt fühlen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenn Roboter Emotionen hätten, könnte ich mich mit ihnen anfreunden. </t>
-  </si>
-  <si>
-    <t>Ich würde mich unbhaglich dabei fühlen, wenn ich einen Job bekommen würde bei dem ich mit Robotern arbeiten müsste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich befürchte, dass Roboter meine Anweisungen nicht verstehen wüden. </t>
-  </si>
-  <si>
     <t>Roboter machen mir Angst.</t>
   </si>
   <si>
     <t>Ich würde mich sehr nervös fühlen, allein in der Nähe eines Roboters zu sein.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich möchte nicht, dass ein Roboter mich anfasst. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roboter sind notwendig, da sie Jobs ausführen können, welche zu schwer oder gefährlich für Menschen sind. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roboter können das Leben einfacher machen. </t>
-  </si>
-  <si>
-    <t>Die Zuweisung von Routineaufgaben an Roboter ermöglicht es den Menschen, bedeutungsvollere Aufgaben zu erledigen</t>
   </si>
   <si>
     <t xml:space="preserve">Roboter sind eine gute Sache für die Gesellschaft, da sie Menschen helfen. </t>
@@ -162,6 +138,30 @@
   </si>
   <si>
     <t>Robotik ist einer der Bereiche der Technologie, der engmaschig überwacht werden muss.</t>
+  </si>
+  <si>
+    <t>Ich würde mich unbehaglich dabei fühlen, wenn ich einen Job bekommen würde, bei dem ich mit Robotern arbeiten müsste.</t>
+  </si>
+  <si>
+    <t>Ich würde mich im Gespräch mit einem Roboter entspannt fühlen.</t>
+  </si>
+  <si>
+    <t>Die Zuweisung von Routineaufgaben an Roboter ermöglicht es den Menschen, bedeutungsvollere Aufgaben zu erledigen.</t>
+  </si>
+  <si>
+    <t>Wenn Roboter Emotionen hätten, könnte ich mich mit ihnen anfreunden.</t>
+  </si>
+  <si>
+    <t>Ich befürchte, dass Roboter meine Anweisungen nicht verstehen wüden.</t>
+  </si>
+  <si>
+    <t>Ich möchte nicht, dass ein Roboter mich anfasst.</t>
+  </si>
+  <si>
+    <t>Roboter sind notwendig, da sie Jobs ausführen können, welche zu schwer oder gefährlich für Menschen sind.</t>
+  </si>
+  <si>
+    <t>Roboter können das Leben einfacher machen.</t>
   </si>
 </sst>
 </file>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9F1513D0-7BF5-479C-BD64-25881C7BA904}" diskRevisions="1" revisionId="839" version="33">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5A14A7E6-E766-401E-A8C3-415BF853DC08}" diskRevisions="1" revisionId="847" version="36">
   <header guid="{09193A18-0B52-4FAB-B338-B4D967DC2D75}" dateTime="2022-09-29T13:56:20" maxSheetId="2" userName="Julius Fenn" r:id="rId23" minRId="265" maxRId="270">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -298,6 +298,21 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{F3C142EC-A19B-417C-BD29-9B591B3A8346}" dateTime="2023-12-11T09:00:05" maxSheetId="2" userName="Julius Fenn" r:id="rId37" minRId="840" maxRId="842">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ADFBC72C-5BC8-4A25-A109-96C4906E10DA}" dateTime="2023-12-11T09:01:48" maxSheetId="2" userName="Julius Fenn" r:id="rId38" minRId="843" maxRId="844">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5A14A7E6-E766-401E-A8C3-415BF853DC08}" dateTime="2023-12-11T09:02:53" maxSheetId="2" userName="Julius Fenn" r:id="rId39" minRId="845" maxRId="847">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -11885,7 +11900,122 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="840" sId="1">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Ich würde mich unbhaglich dabei fühlen, wenn ich einen Job bekommen würde bei dem ich mit Robotern arbeiten müsste</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Ich würde mich unbehaglich dabei fühlen, wenn ich einen Job bekommen würde, bei dem ich mit Robotern arbeiten müsste.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="841" sId="1">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>Ich würde mich im Gespräch mit einem Roboter entspannt fühlen</t>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>Ich würde mich im Gespräch mit einem Roboter entspannt fühlen.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="842" sId="1">
+    <oc r="B14" t="inlineStr">
+      <is>
+        <t>Die Zuweisung von Routineaufgaben an Roboter ermöglicht es den Menschen, bedeutungsvollere Aufgaben zu erledigen</t>
+      </is>
+    </oc>
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>Die Zuweisung von Routineaufgaben an Roboter ermöglicht es den Menschen, bedeutungsvollere Aufgaben zu erledigen.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="delete"/>
+  <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="843" sId="1">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Wenn Roboter Emotionen hätten, könnte ich mich mit ihnen anfreunden. </t>
+      </is>
+    </oc>
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Wenn Roboter Emotionen hätten, könnte ich mich mit ihnen anfreunden.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="844" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Ich befürchte, dass Roboter meine Anweisungen nicht verstehen wüden. </t>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>Ich befürchte, dass Roboter meine Anweisungen nicht verstehen wüden.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="delete"/>
+  <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="845" sId="1">
+    <oc r="B11" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Ich möchte nicht, dass ein Roboter mich anfasst. </t>
+      </is>
+    </oc>
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>Ich möchte nicht, dass ein Roboter mich anfasst.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="846" sId="1">
+    <oc r="B12" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Roboter sind notwendig, da sie Jobs ausführen können, welche zu schwer oder gefährlich für Menschen sind. </t>
+      </is>
+    </oc>
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>Roboter sind notwendig, da sie Jobs ausführen können, welche zu schwer oder gefährlich für Menschen sind.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="847" sId="1">
+    <oc r="B13" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Roboter können das Leben einfacher machen. </t>
+      </is>
+    </oc>
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>Roboter können das Leben einfacher machen.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{09193A18-0B52-4FAB-B338-B4D967DC2D75}" name="Julius Fenn" id="-1936404097" dateTime="2022-09-29T13:55:36"/>
 </users>
@@ -12159,8 +12289,8 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12207,7 +12337,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12215,7 +12345,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12223,7 +12353,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12231,7 +12361,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12239,7 +12369,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12247,7 +12377,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12255,7 +12385,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12263,7 +12393,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12271,7 +12401,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12279,7 +12409,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12287,7 +12417,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12295,7 +12425,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -12303,7 +12433,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12311,7 +12441,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12319,7 +12449,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12327,7 +12457,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12335,13 +12465,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" scale="145" showPageBreaks="1" fitToPage="1">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
     </customSheetView>
